--- a/src/main/resources/UsersData.xlsx
+++ b/src/main/resources/UsersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siva\Documents\HyperGridAutomation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A40C0-E298-478C-88FD-E43D4FB9CFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971AF7F7-75EA-440D-8059-FC7485DB9D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{295AE140-15A7-437E-A281-F4748142F337}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>standard_user</t>
   </si>
@@ -81,19 +81,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Secret_Sauce</t>
-  </si>
-  <si>
-    <t>Performance_Secret_Sauce</t>
-  </si>
-  <si>
-    <t>Problem_Secret_Sauce</t>
-  </si>
-  <si>
-    <t>Error_Secret_Sauce</t>
-  </si>
-  <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
   </si>
 </sst>
 </file>
@@ -498,7 +489,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,12 +499,12 @@
     <col min="3" max="3" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -527,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -538,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -549,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -571,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -582,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
